--- a/biology/Zoologie/Arminoidea/Arminoidea.xlsx
+++ b/biology/Zoologie/Arminoidea/Arminoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Arminoidea, uniques représentants de la super-famille des Euarminida, forment un infra-ordre de mollusques de l'ordre des nudibranches.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez ce groupe du parvordre des Euarminida parfois appelés « nudibranches arminacées », la surface du manteau est ridée (avec ou sans appendices dorsaux)[1], les rhinophores rétractiles et les branchies se trouvent sous le manteau dans sa partie antérieure. Ils sont aussi caractérisés par leur velum céphalique[2]. Leur morphologie particulière fait souvent confondre certaines espèces avec des planaires. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez ce groupe du parvordre des Euarminida parfois appelés « nudibranches arminacées », la surface du manteau est ridée (avec ou sans appendices dorsaux), les rhinophores rétractiles et les branchies se trouvent sous le manteau dans sa partie antérieure. Ils sont aussi caractérisés par leur velum céphalique. Leur morphologie particulière fait souvent confondre certaines espèces avec des planaires. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (13 septembre 2021)[3], prenant pour base la taxinomie de Bouchet &amp; Rocroi (2005), on compte trois familles :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (13 septembre 2021), prenant pour base la taxinomie de Bouchet &amp; Rocroi (2005), on compte trois familles :
 Arminidae  Iredale &amp; O'Donoghue, 1923 -- 6 genres
 Doridomorphidae Marcus &amp; Marcus, 1960 -- 1 genre
 Heterodorididae Verrill &amp; Emerton, 1882 -- 1 genre
